--- a/feature/電子サイン/tasks_rev02.xlsx
+++ b/feature/電子サイン/tasks_rev02.xlsx
@@ -8,17 +8,29 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MediaRoot\src\kyoshizawa\kywiki\feature\電子サイン\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23D2354F-ED62-4A19-969E-70964AD1920C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9697B1FB-A78F-473D-B0D4-D7426D434EAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-57720" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工数見積" sheetId="1" r:id="rId1"/>
+    <sheet name="PBI" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -66,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="91">
   <si>
     <t>TerminalAPI</t>
     <phoneticPr fontId="1"/>
@@ -473,6 +485,331 @@
     <t>d（人日）</t>
     <rPh sb="2" eb="4">
       <t>ニンニチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フィーチャの#</t>
+  </si>
+  <si>
+    <t>プロジェクト</t>
+  </si>
+  <si>
+    <t>プロダクト</t>
+  </si>
+  <si>
+    <t>エピック</t>
+  </si>
+  <si>
+    <t>フィーチャ</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>タイトル</t>
+  </si>
+  <si>
+    <t>受け入れ基準や詳細内容</t>
+  </si>
+  <si>
+    <t>(長文になる場合はリンクを記載)</t>
+  </si>
+  <si>
+    <t>種別</t>
+  </si>
+  <si>
+    <t>起票日</t>
+  </si>
+  <si>
+    <t>起票者</t>
+  </si>
+  <si>
+    <t>スプリント</t>
+  </si>
+  <si>
+    <t>期間</t>
+  </si>
+  <si>
+    <t>担当チーム</t>
+  </si>
+  <si>
+    <t>状態</t>
+  </si>
+  <si>
+    <t>相対</t>
+  </si>
+  <si>
+    <t>見積り</t>
+  </si>
+  <si>
+    <t>絶対</t>
+  </si>
+  <si>
+    <t>見積り(h)</t>
+  </si>
+  <si>
+    <t>エイジィ HOTEL SMART Pay（オフライン）NEW9310Pro</t>
+  </si>
+  <si>
+    <t>ペイメント</t>
+  </si>
+  <si>
+    <t>xxx社セルフチェックイン機対応</t>
+  </si>
+  <si>
+    <t>#</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PT-750後継機(NEW9830, NEW9310Pro)開発　Step1</t>
+  </si>
+  <si>
+    <t>PT-750の後継機をリリースする</t>
+  </si>
+  <si>
+    <t>TerminalAPIの電子サイン対応</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>決済アプリの電子サイン対応</t>
+    <rPh sb="0" eb="2">
+      <t>ケッサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タスク</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>L</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>M</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>取引一覧・取引取得</t>
+    <rPh sb="0" eb="2">
+      <t>トリヒキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>トリヒキ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TerminalAPI：IF変更：取引情報取得
+・APIでサインの要否を取得できる</t>
+    <rPh sb="33" eb="35">
+      <t>ヨウヒ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TerminalAPI：IF追加：取引画像保存API 
+・APIで画像を受信 &amp; 保存できる</t>
+    <rPh sb="33" eb="35">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ジュシン</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ホゾン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TerminalAPI：IF追加：取引画像保存API 
+・APIでセンターに画像を送信できる</t>
+    <rPh sb="38" eb="40">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ソウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ローカル保存・DB記録</t>
+    <rPh sb="4" eb="6">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>キロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>センター送信</t>
+    <rPh sb="4" eb="6">
+      <t>ソウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サーバサイド：インフラ構築：外部接続
+・画像保存APIにアクセスできる</t>
+    <rPh sb="20" eb="22">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ホゾン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サーバサイド：インフラ構築：外部接続
+・鍵発行APIにアクセスできる</t>
+    <rPh sb="20" eb="21">
+      <t>カギ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ハッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入口へのアクセスのみ</t>
+    <rPh sb="0" eb="2">
+      <t>イリグチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パス設計 / アクセス制御等</t>
+    <rPh sb="2" eb="4">
+      <t>セッケイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>セイギョ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>トウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サーバサイド：インフラ構築：s3追加
+・s3を構築し、定義された処理で画像を保存できる</t>
+    <rPh sb="23" eb="25">
+      <t>コウチク</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>テイギ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ホゾン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サーバサイド：インフラ構築：踏み台整備
+・踏み台から画像取得APIにアクセスできる</t>
+    <rPh sb="21" eb="22">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>内部IF定義</t>
+    <rPh sb="0" eb="2">
+      <t>ナイブ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>テイギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TBD</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ビジネスロジック実装</t>
+    <rPh sb="8" eb="10">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サーバサイド：API実装
+・DBに画像保存結果が記録できる</t>
+    <rPh sb="17" eb="21">
+      <t>ガゾウホゾン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>キロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サーバサイド：API実装
+・s3 に画像が保存できる</t>
+    <rPh sb="18" eb="20">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ホゾン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サーバサイド：API実装
+・s3 から画像が取得できる</t>
+    <rPh sb="19" eb="21">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サーバサイド：API実装
+・画像のハッシュ値を比較できる</t>
+    <rPh sb="14" eb="16">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヒカク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -481,7 +818,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -526,8 +863,36 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="0" tint="-0.34998626667073579"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -543,6 +908,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -679,7 +1056,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -696,11 +1073,50 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -983,8 +1399,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:J21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -1324,4 +1740,927 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC2B1556-4FB3-4DF7-9432-FCE4CAF52DC9}">
+  <dimension ref="A1:R107"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <cols>
+    <col min="1" max="1" width="18.796875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.296875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.59765625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.09765625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.3984375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.796875" style="1"/>
+    <col min="7" max="7" width="39.69921875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.69921875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.796875" style="1"/>
+    <col min="10" max="10" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.796875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="45">
+      <c r="A1" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="K1" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="L1" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="M1" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="N1" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="O1" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="P1" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q1" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="R1" s="22"/>
+    </row>
+    <row r="2" spans="1:18" ht="39.6" customHeight="1">
+      <c r="A2" s="16"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q2" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="R2" s="22"/>
+    </row>
+    <row r="3" spans="1:18" s="23" customFormat="1" ht="45">
+      <c r="A3" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="G3" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="H3" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="I3" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="J3" s="24">
+        <v>45912</v>
+      </c>
+      <c r="K3" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="L3" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="M3" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="N3" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="O3" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="P3" s="23" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" s="23" customFormat="1" ht="45">
+      <c r="A4" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="26" t="str">
+        <f>B3</f>
+        <v>エイジィ HOTEL SMART Pay（オフライン）NEW9310Pro</v>
+      </c>
+      <c r="C4" s="26" t="str">
+        <f>C3</f>
+        <v>ペイメント</v>
+      </c>
+      <c r="D4" s="26" t="str">
+        <f>D3</f>
+        <v>xxx社セルフチェックイン機対応</v>
+      </c>
+      <c r="E4" s="26" t="str">
+        <f>E3</f>
+        <v>TerminalAPIの電子サイン対応</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="H4" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="I4" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="J4" s="24">
+        <v>45912</v>
+      </c>
+      <c r="K4" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="L4" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="M4" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="N4" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="O4" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="P4" s="23" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" s="23" customFormat="1" ht="45">
+      <c r="A5" s="25"/>
+      <c r="B5" s="26" t="str">
+        <f>B4</f>
+        <v>エイジィ HOTEL SMART Pay（オフライン）NEW9310Pro</v>
+      </c>
+      <c r="C5" s="26" t="str">
+        <f>C4</f>
+        <v>ペイメント</v>
+      </c>
+      <c r="D5" s="26" t="str">
+        <f>D4</f>
+        <v>xxx社セルフチェックイン機対応</v>
+      </c>
+      <c r="E5" s="26" t="str">
+        <f>E4</f>
+        <v>TerminalAPIの電子サイン対応</v>
+      </c>
+      <c r="F5" s="25"/>
+      <c r="G5" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="H5" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="I5" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" s="24">
+        <v>45912</v>
+      </c>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="25"/>
+      <c r="O5" s="25"/>
+      <c r="P5" s="23" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" s="23" customFormat="1" ht="45" customHeight="1">
+      <c r="A6" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" s="26" t="str">
+        <f>B5</f>
+        <v>エイジィ HOTEL SMART Pay（オフライン）NEW9310Pro</v>
+      </c>
+      <c r="C6" s="26" t="str">
+        <f>C5</f>
+        <v>ペイメント</v>
+      </c>
+      <c r="D6" s="26" t="str">
+        <f>D5</f>
+        <v>xxx社セルフチェックイン機対応</v>
+      </c>
+      <c r="E6" s="26" t="str">
+        <f>E5</f>
+        <v>TerminalAPIの電子サイン対応</v>
+      </c>
+      <c r="F6" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="G6" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="H6" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="I6" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="J6" s="24">
+        <v>45912</v>
+      </c>
+      <c r="K6" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="L6" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="M6" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="N6" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="O6" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="P6" s="23" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" s="23" customFormat="1" ht="45" customHeight="1">
+      <c r="A7" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" s="26" t="str">
+        <f>B6</f>
+        <v>エイジィ HOTEL SMART Pay（オフライン）NEW9310Pro</v>
+      </c>
+      <c r="C7" s="26" t="str">
+        <f>C6</f>
+        <v>ペイメント</v>
+      </c>
+      <c r="D7" s="26" t="str">
+        <f>D6</f>
+        <v>xxx社セルフチェックイン機対応</v>
+      </c>
+      <c r="E7" s="26" t="str">
+        <f>E6</f>
+        <v>TerminalAPIの電子サイン対応</v>
+      </c>
+      <c r="F7" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="G7" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="H7" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="I7" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="J7" s="24">
+        <v>45912</v>
+      </c>
+      <c r="K7" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="L7" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="M7" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="N7" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="O7" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="P7" s="23" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" s="23" customFormat="1" ht="45" customHeight="1">
+      <c r="A8" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="26" t="str">
+        <f>B7</f>
+        <v>エイジィ HOTEL SMART Pay（オフライン）NEW9310Pro</v>
+      </c>
+      <c r="C8" s="26" t="str">
+        <f>C7</f>
+        <v>ペイメント</v>
+      </c>
+      <c r="D8" s="26" t="str">
+        <f>D7</f>
+        <v>xxx社セルフチェックイン機対応</v>
+      </c>
+      <c r="E8" s="26" t="str">
+        <f>E7</f>
+        <v>TerminalAPIの電子サイン対応</v>
+      </c>
+      <c r="F8" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="G8" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="H8" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="I8" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="J8" s="24">
+        <v>45912</v>
+      </c>
+      <c r="K8" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="L8" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="M8" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="N8" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="O8" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="P8" s="23" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" s="23" customFormat="1" ht="45" customHeight="1">
+      <c r="A9" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" s="26" t="str">
+        <f>B8</f>
+        <v>エイジィ HOTEL SMART Pay（オフライン）NEW9310Pro</v>
+      </c>
+      <c r="C9" s="26" t="str">
+        <f>C8</f>
+        <v>ペイメント</v>
+      </c>
+      <c r="D9" s="26" t="str">
+        <f>D8</f>
+        <v>xxx社セルフチェックイン機対応</v>
+      </c>
+      <c r="E9" s="26" t="str">
+        <f>E8</f>
+        <v>TerminalAPIの電子サイン対応</v>
+      </c>
+      <c r="F9" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="G9" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="H9" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="I9" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="J9" s="24">
+        <v>45912</v>
+      </c>
+      <c r="K9" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="L9" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="M9" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="N9" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="O9" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="P9" s="23" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" s="23" customFormat="1" ht="45" customHeight="1">
+      <c r="A10" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" s="26" t="str">
+        <f>B8</f>
+        <v>エイジィ HOTEL SMART Pay（オフライン）NEW9310Pro</v>
+      </c>
+      <c r="C10" s="26" t="str">
+        <f>C8</f>
+        <v>ペイメント</v>
+      </c>
+      <c r="D10" s="26" t="str">
+        <f>D8</f>
+        <v>xxx社セルフチェックイン機対応</v>
+      </c>
+      <c r="E10" s="26" t="str">
+        <f>E8</f>
+        <v>TerminalAPIの電子サイン対応</v>
+      </c>
+      <c r="F10" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="G10" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="H10" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="I10" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="J10" s="24">
+        <v>45912</v>
+      </c>
+      <c r="K10" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="L10" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="M10" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="N10" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="O10" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="P10" s="23" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" s="23" customFormat="1" ht="45" customHeight="1">
+      <c r="A11" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="26" t="str">
+        <f>B8</f>
+        <v>エイジィ HOTEL SMART Pay（オフライン）NEW9310Pro</v>
+      </c>
+      <c r="C11" s="26" t="str">
+        <f>C8</f>
+        <v>ペイメント</v>
+      </c>
+      <c r="D11" s="26" t="str">
+        <f>D8</f>
+        <v>xxx社セルフチェックイン機対応</v>
+      </c>
+      <c r="E11" s="26" t="str">
+        <f>E8</f>
+        <v>TerminalAPIの電子サイン対応</v>
+      </c>
+      <c r="F11" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="G11" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="H11" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="I11" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="J11" s="24">
+        <v>45912</v>
+      </c>
+      <c r="K11" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="L11" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="M11" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="N11" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="O11" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="P11" s="23" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" s="23" customFormat="1" ht="45" customHeight="1">
+      <c r="A12" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" s="26" t="str">
+        <f>B8</f>
+        <v>エイジィ HOTEL SMART Pay（オフライン）NEW9310Pro</v>
+      </c>
+      <c r="C12" s="26" t="str">
+        <f>C8</f>
+        <v>ペイメント</v>
+      </c>
+      <c r="D12" s="26" t="str">
+        <f>D8</f>
+        <v>xxx社セルフチェックイン機対応</v>
+      </c>
+      <c r="E12" s="26" t="str">
+        <f>E8</f>
+        <v>TerminalAPIの電子サイン対応</v>
+      </c>
+      <c r="F12" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="G12" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="H12" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="I12" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="J12" s="24">
+        <v>45912</v>
+      </c>
+      <c r="K12" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="L12" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="M12" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="N12" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="O12" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="P12" s="23" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" s="23" customFormat="1" ht="45" customHeight="1">
+      <c r="A13" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" s="26" t="str">
+        <f>B9</f>
+        <v>エイジィ HOTEL SMART Pay（オフライン）NEW9310Pro</v>
+      </c>
+      <c r="C13" s="26" t="str">
+        <f>C9</f>
+        <v>ペイメント</v>
+      </c>
+      <c r="D13" s="26" t="str">
+        <f>D9</f>
+        <v>xxx社セルフチェックイン機対応</v>
+      </c>
+      <c r="E13" s="26" t="str">
+        <f>E9</f>
+        <v>TerminalAPIの電子サイン対応</v>
+      </c>
+      <c r="F13" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="G13" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="H13" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="I13" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="J13" s="24">
+        <v>45912</v>
+      </c>
+      <c r="K13" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="L13" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="M13" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="N13" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="O13" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="P13" s="23" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" s="23" customFormat="1" ht="45" hidden="1" customHeight="1">
+      <c r="A14" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="E14" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="F14" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="G14" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="I14" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="J14" s="24">
+        <v>45912</v>
+      </c>
+      <c r="K14" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="L14" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="M14" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="N14" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="O14" s="25" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" s="23" customFormat="1" ht="15" hidden="1">
+      <c r="A15" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="F15" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="I15" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="J15" s="24">
+        <v>45912</v>
+      </c>
+      <c r="K15" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="L15" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="M15" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="N15" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="O15" s="25" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" s="23" customFormat="1" ht="15" hidden="1">
+      <c r="A16" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="F16" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="I16" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="J16" s="24">
+        <v>45912</v>
+      </c>
+      <c r="K16" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="L16" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="M16" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="N16" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="O16" s="25" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" s="23" customFormat="1" ht="15" hidden="1">
+      <c r="A17" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="F17" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="I17" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="J17" s="24">
+        <v>45912</v>
+      </c>
+      <c r="K17" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="L17" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="M17" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="N17" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="O17" s="25" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" s="23" customFormat="1" ht="15"/>
+    <row r="19" spans="1:15" s="23" customFormat="1" ht="15"/>
+    <row r="20" spans="1:15" s="23" customFormat="1" ht="15"/>
+    <row r="21" spans="1:15" s="23" customFormat="1" ht="15"/>
+    <row r="22" spans="1:15" s="23" customFormat="1" ht="15"/>
+    <row r="23" spans="1:15" s="23" customFormat="1" ht="15"/>
+    <row r="24" spans="1:15" s="23" customFormat="1" ht="15"/>
+    <row r="25" spans="1:15" s="23" customFormat="1" ht="15"/>
+    <row r="26" spans="1:15" s="23" customFormat="1" ht="15"/>
+    <row r="27" spans="1:15" s="23" customFormat="1" ht="15"/>
+    <row r="28" spans="1:15" s="23" customFormat="1" ht="15"/>
+    <row r="29" spans="1:15" s="23" customFormat="1" ht="15"/>
+    <row r="30" spans="1:15" s="23" customFormat="1" ht="15"/>
+    <row r="31" spans="1:15" s="23" customFormat="1" ht="15"/>
+    <row r="32" spans="1:15" s="23" customFormat="1" ht="15"/>
+    <row r="33" s="23" customFormat="1" ht="15"/>
+    <row r="34" s="23" customFormat="1" ht="15"/>
+    <row r="35" s="23" customFormat="1" ht="15"/>
+    <row r="36" s="23" customFormat="1" ht="15"/>
+    <row r="37" s="23" customFormat="1" ht="15"/>
+    <row r="38" s="23" customFormat="1" ht="15"/>
+    <row r="39" s="23" customFormat="1" ht="15"/>
+    <row r="40" s="23" customFormat="1" ht="15"/>
+    <row r="41" s="23" customFormat="1" ht="15"/>
+    <row r="42" s="23" customFormat="1" ht="15"/>
+    <row r="43" s="23" customFormat="1" ht="15"/>
+    <row r="44" s="23" customFormat="1" ht="15"/>
+    <row r="45" s="23" customFormat="1" ht="15"/>
+    <row r="46" s="23" customFormat="1" ht="15"/>
+    <row r="47" s="23" customFormat="1" ht="15"/>
+    <row r="48" s="23" customFormat="1" ht="15"/>
+    <row r="49" s="23" customFormat="1" ht="15"/>
+    <row r="50" s="23" customFormat="1" ht="15"/>
+    <row r="51" s="23" customFormat="1" ht="15"/>
+    <row r="52" s="23" customFormat="1" ht="15"/>
+    <row r="53" s="23" customFormat="1" ht="15"/>
+    <row r="54" s="23" customFormat="1" ht="15"/>
+    <row r="55" s="23" customFormat="1" ht="15"/>
+    <row r="56" s="23" customFormat="1" ht="15"/>
+    <row r="57" s="23" customFormat="1" ht="15"/>
+    <row r="58" s="23" customFormat="1" ht="15"/>
+    <row r="59" s="23" customFormat="1" ht="15"/>
+    <row r="60" s="23" customFormat="1" ht="15"/>
+    <row r="61" s="23" customFormat="1" ht="15"/>
+    <row r="62" s="23" customFormat="1" ht="15"/>
+    <row r="63" s="23" customFormat="1" ht="15"/>
+    <row r="64" s="23" customFormat="1" ht="15"/>
+    <row r="65" s="23" customFormat="1" ht="15"/>
+    <row r="66" s="23" customFormat="1" ht="15"/>
+    <row r="67" s="23" customFormat="1" ht="15"/>
+    <row r="68" s="23" customFormat="1" ht="15"/>
+    <row r="69" s="23" customFormat="1" ht="15"/>
+    <row r="70" s="23" customFormat="1" ht="15"/>
+    <row r="71" s="23" customFormat="1" ht="15"/>
+    <row r="72" s="23" customFormat="1" ht="15"/>
+    <row r="73" s="23" customFormat="1" ht="15"/>
+    <row r="74" s="23" customFormat="1" ht="15"/>
+    <row r="75" s="23" customFormat="1" ht="15"/>
+    <row r="76" s="23" customFormat="1" ht="15"/>
+    <row r="77" s="23" customFormat="1" ht="15"/>
+    <row r="78" s="23" customFormat="1" ht="15"/>
+    <row r="79" s="23" customFormat="1" ht="15"/>
+    <row r="80" s="23" customFormat="1" ht="15"/>
+    <row r="81" s="23" customFormat="1" ht="15"/>
+    <row r="82" s="23" customFormat="1" ht="15"/>
+    <row r="83" s="23" customFormat="1" ht="15"/>
+    <row r="84" s="23" customFormat="1" ht="15"/>
+    <row r="85" s="23" customFormat="1" ht="15"/>
+    <row r="86" s="23" customFormat="1" ht="15"/>
+    <row r="87" s="23" customFormat="1" ht="15"/>
+    <row r="88" s="23" customFormat="1" ht="15"/>
+    <row r="89" s="23" customFormat="1" ht="15"/>
+    <row r="90" s="23" customFormat="1" ht="15"/>
+    <row r="91" s="23" customFormat="1" ht="15"/>
+    <row r="92" s="23" customFormat="1" ht="15"/>
+    <row r="93" s="23" customFormat="1" ht="15"/>
+    <row r="94" s="23" customFormat="1" ht="15"/>
+    <row r="95" s="23" customFormat="1" ht="15"/>
+    <row r="96" s="23" customFormat="1" ht="15"/>
+    <row r="97" s="23" customFormat="1" ht="15"/>
+    <row r="98" s="23" customFormat="1" ht="15"/>
+    <row r="99" s="23" customFormat="1" ht="15"/>
+    <row r="100" s="23" customFormat="1" ht="15"/>
+    <row r="101" s="23" customFormat="1" ht="15"/>
+    <row r="102" s="23" customFormat="1" ht="15"/>
+    <row r="103" s="23" customFormat="1" ht="15"/>
+    <row r="104" s="23" customFormat="1" ht="15"/>
+    <row r="105" s="23" customFormat="1" ht="15"/>
+    <row r="106" s="23" customFormat="1" ht="15"/>
+    <row r="107" s="23" customFormat="1" ht="15"/>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>